--- a/output/fit_clients/fit_round_116.xlsx
+++ b/output/fit_clients/fit_round_116.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1795029303.188132</v>
+        <v>2229306102.046221</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0755065821685898</v>
+        <v>0.0935874253831098</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02942802878170396</v>
+        <v>0.03479373422475681</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>897514619.6058773</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1651338613.665969</v>
+        <v>1885821184.765273</v>
       </c>
       <c r="F3" t="n">
-        <v>0.170309205096505</v>
+        <v>0.1418586031791183</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04744538477784937</v>
+        <v>0.04444591106916207</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>825669292.8453484</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3457678628.684914</v>
+        <v>3465435376.087709</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1234171958651909</v>
+        <v>0.119458890821037</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03421186171568143</v>
+        <v>0.03322366349085848</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1728839290.036172</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4100774887.491233</v>
+        <v>3690296949.538403</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06771880593279503</v>
+        <v>0.09682265511685956</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04650123806275584</v>
+        <v>0.03104802106105712</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2050387440.695515</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2598987747.198345</v>
+        <v>2578637425.506092</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09844038651369059</v>
+        <v>0.1401767141867661</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03495204137887793</v>
+        <v>0.04841696511163167</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1299493838.311458</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2410386957.243156</v>
+        <v>2291146631.018063</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06987025981400757</v>
+        <v>0.07552577534867462</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03668784258491144</v>
+        <v>0.04458519164743845</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1205193500.222364</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3102394897.424079</v>
+        <v>3906075097.078775</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2178884984931684</v>
+        <v>0.1962981654909486</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0225781245716753</v>
+        <v>0.03106199712991334</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>37</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1551197516.640678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1494295424.888094</v>
+        <v>2212734245.38871</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1493798331138636</v>
+        <v>0.1198023878208665</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02837734752038854</v>
+        <v>0.03745301720258926</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>747147809.1815937</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5109927556.510262</v>
+        <v>5155013697.916652</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1315238944187217</v>
+        <v>0.142212964756765</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04551785913087149</v>
+        <v>0.05046176324682004</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>49</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2554963886.026566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4129449989.077657</v>
+        <v>4099080948.356067</v>
       </c>
       <c r="F11" t="n">
-        <v>0.18811584257262</v>
+        <v>0.1219344365500868</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0461651030125847</v>
+        <v>0.03812097182060116</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>48</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2064725016.203872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2898503536.603708</v>
+        <v>3144975104.77346</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1424434081966863</v>
+        <v>0.1666732430455335</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04768654153157881</v>
+        <v>0.0417407121771466</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>41</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1449251776.9609</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3493187540.034198</v>
+        <v>4092779636.447782</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09690753393033523</v>
+        <v>0.06283910462968489</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02251339513421405</v>
+        <v>0.02308455456235228</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>39</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1746593850.64086</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2764496891.139984</v>
+        <v>2918027376.015559</v>
       </c>
       <c r="F14" t="n">
-        <v>0.133496925107104</v>
+        <v>0.1252372173328549</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03225614081231818</v>
+        <v>0.03618572980990076</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>37</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1382248497.017049</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1343874400.88594</v>
+        <v>1363941857.409508</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09435218863208032</v>
+        <v>0.107879383843173</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04765377141010763</v>
+        <v>0.0343468535254304</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>671937250.4904761</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2027355412.524349</v>
+        <v>1943518749.008464</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08182279081955106</v>
+        <v>0.1056827778190669</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03188160408361666</v>
+        <v>0.04996306089706011</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>17</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1013677779.252977</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3382547780.593951</v>
+        <v>4082342267.888809</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1468025993463813</v>
+        <v>0.1576401991709398</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03757706921044995</v>
+        <v>0.04656026287166582</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>34</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1691273955.306591</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3780740629.716808</v>
+        <v>2436869651.252544</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1299912690518457</v>
+        <v>0.129124465931919</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02805553063553295</v>
+        <v>0.02430544778430482</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>38</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1890370288.585493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1331197994.589075</v>
+        <v>895229627.4205306</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1697070243307055</v>
+        <v>0.1545774000625412</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02401229089063452</v>
+        <v>0.02256827330620853</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>665599107.0790021</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2606171997.493534</v>
+        <v>2186438786.806397</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1378791014086871</v>
+        <v>0.1166330238841458</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02409732850321387</v>
+        <v>0.03071246468953983</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1303085960.471372</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2006194376.374591</v>
+        <v>2079275539.318236</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07394373275528518</v>
+        <v>0.08570391715118417</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02905431202150847</v>
+        <v>0.04472237994738112</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1003097223.498824</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3192793980.757832</v>
+        <v>2860090305.163826</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09434449676369752</v>
+        <v>0.1239309482607372</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05002344168642934</v>
+        <v>0.04316568291311892</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>32</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1596397040.308816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1370455344.792051</v>
+        <v>1237758711.755604</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1161233530319723</v>
+        <v>0.1566969465204772</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04384087620964762</v>
+        <v>0.04969855485360847</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>685227680.1085827</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3768506662.648788</v>
+        <v>4102590632.292759</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09481941628969981</v>
+        <v>0.1006760006619606</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03128499086458366</v>
+        <v>0.03277425914184442</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>34</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1884253314.832423</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1400054231.133944</v>
+        <v>1181735241.896711</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09888797119759085</v>
+        <v>0.0813602975266515</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02654425458067759</v>
+        <v>0.01910538336740056</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>700027087.453882</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>996128348.7440886</v>
+        <v>1141995359.988022</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1135881658332892</v>
+        <v>0.09808172582310698</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03422398393204424</v>
+        <v>0.02406279984677875</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>498064145.4872769</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4168488630.260508</v>
+        <v>3273035625.87857</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1071191033393746</v>
+        <v>0.1373037363867841</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02436436998188573</v>
+        <v>0.0235266168723484</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2084244316.85806</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3191469826.80558</v>
+        <v>2579397486.181009</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1340361245544626</v>
+        <v>0.1297205637846525</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04741886732282587</v>
+        <v>0.0481624465209048</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>37</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1595734941.213231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5716996540.219611</v>
+        <v>4132545547.841818</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1047023827059217</v>
+        <v>0.1330056547998919</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0307362578982203</v>
+        <v>0.04519017527420886</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>52</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2858498167.889585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1718028438.993149</v>
+        <v>1655759151.186807</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1354707686643236</v>
+        <v>0.1013275204206623</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03055018797831983</v>
+        <v>0.02490480154149266</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>859014224.7644951</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1292432403.679536</v>
+        <v>1081023722.924307</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1093437016995293</v>
+        <v>0.0957480866312599</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04688666495666858</v>
+        <v>0.03441913554262159</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>646216131.4856693</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1304535766.107133</v>
+        <v>1299786840.411194</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1180272078470993</v>
+        <v>0.07844410681162113</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03753680022575018</v>
+        <v>0.03444548155641317</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>652267910.8399549</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2101070236.968775</v>
+        <v>2395985652.151509</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1314477183157046</v>
+        <v>0.2057965991107891</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03771497609523868</v>
+        <v>0.03836002101929317</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>33</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1050535190.621453</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1345789365.883433</v>
+        <v>1058300505.49758</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1188071661403623</v>
+        <v>0.09407079749161064</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02069708228453189</v>
+        <v>0.01832740546432132</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>672894664.0716029</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>876100417.1864456</v>
+        <v>854321845.0471653</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1108744421944771</v>
+        <v>0.07808995252286118</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02782201047898627</v>
+        <v>0.03149073070350211</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>438050254.2894182</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3059127885.188829</v>
+        <v>3053453546.391071</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1402934408365568</v>
+        <v>0.1140750014662573</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02546005596185263</v>
+        <v>0.02651853147533314</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>29</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1529563919.716103</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2445336577.984696</v>
+        <v>2640719505.024924</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1053373659042592</v>
+        <v>0.09049023844058413</v>
       </c>
       <c r="G37" t="n">
-        <v>0.030631344992294</v>
+        <v>0.03321369088557466</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>31</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1222668377.470075</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1817094796.672501</v>
+        <v>1646400645.37292</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09121781332124332</v>
+        <v>0.08638188734134113</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03127603857880616</v>
+        <v>0.02491863115085591</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>908547402.7444193</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1742637473.491515</v>
+        <v>1655023450.16749</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1792871792028627</v>
+        <v>0.1511555006954449</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02101577594669956</v>
+        <v>0.02805227085352994</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>871318770.2903562</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1640761367.205844</v>
+        <v>1742062839.575086</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1004661157530518</v>
+        <v>0.108267960337381</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05501284162952596</v>
+        <v>0.04930578217485818</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>820380614.4806706</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1800520191.673073</v>
+        <v>2867056145.154295</v>
       </c>
       <c r="F41" t="n">
-        <v>0.128502096144094</v>
+        <v>0.1320157834707082</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03487972359772528</v>
+        <v>0.04305194658741967</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>28</v>
-      </c>
-      <c r="J41" t="n">
-        <v>900260189.5015787</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3360771719.307118</v>
+        <v>3272356311.981347</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1064383714433359</v>
+        <v>0.1026970231186104</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03751847866247069</v>
+        <v>0.0309565276502453</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>40</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1680385844.870937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2123344925.2749</v>
+        <v>3010048721.597742</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1498249666482251</v>
+        <v>0.1779898611823192</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02583835853491834</v>
+        <v>0.02558198876276012</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>38</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1061672549.124923</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1663876834.215876</v>
+        <v>1687199389.255891</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09521267198094234</v>
+        <v>0.08734499201877233</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02656230104091527</v>
+        <v>0.03344321823698081</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>831938456.3186147</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2428633725.509713</v>
+        <v>2048876049.792305</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1500109941402246</v>
+        <v>0.1664820839257842</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03770692766410246</v>
+        <v>0.05405570512970292</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1214316896.784134</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4922913093.171034</v>
+        <v>4502595533.62097</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1392223703318168</v>
+        <v>0.1262881416875926</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03778395983951782</v>
+        <v>0.05837348880489578</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>42</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2461456568.89627</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4869103046.773359</v>
+        <v>4986214251.981163</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1665270150877717</v>
+        <v>0.1249361374630374</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03991411637607564</v>
+        <v>0.04080131739953292</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>31</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2434551571.700721</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3637557985.257628</v>
+        <v>3138617093.724778</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09157460569799573</v>
+        <v>0.09723236469521615</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02901480069457275</v>
+        <v>0.02968030096217792</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>38</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1818779047.985602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1602629619.99441</v>
+        <v>1556026010.487078</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1647345664265661</v>
+        <v>0.1480656981874373</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03172293104132808</v>
+        <v>0.03659448888121131</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>801314826.0166684</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3435087902.754463</v>
+        <v>2831008586.853813</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1467089529445935</v>
+        <v>0.1717730913413087</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03685762350246852</v>
+        <v>0.04929924794811823</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>40</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1717543980.214918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1209776270.280967</v>
+        <v>1335329893.419383</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1882734296886239</v>
+        <v>0.1516204711343634</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0536831971711244</v>
+        <v>0.04942717434301241</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>604888185.0498375</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5176619003.218665</v>
+        <v>3796945146.303349</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1273214468095194</v>
+        <v>0.1128425548957927</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04338299851088142</v>
+        <v>0.05777211817737776</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>48</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2588309488.777018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3486388785.786127</v>
+        <v>3030358519.487179</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1917262080645258</v>
+        <v>0.1805594622229713</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02209563659197484</v>
+        <v>0.02663398767972443</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>33</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1743194391.655901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3026187379.824597</v>
+        <v>3438626385.967947</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1629835513131876</v>
+        <v>0.1397008543695979</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05196991613057093</v>
+        <v>0.04171206634778454</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>38</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1513093677.482246</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4102426985.100888</v>
+        <v>4761840720.595738</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1898417953709598</v>
+        <v>0.1843425677419039</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02778120015569992</v>
+        <v>0.02620634292267037</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2051213471.923805</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1641938376.343928</v>
+        <v>1645395905.856163</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1566030209210231</v>
+        <v>0.1178984205556634</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0353890332009769</v>
+        <v>0.04633145659454133</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>820969209.3558346</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4164231040.714119</v>
+        <v>3911818344.505299</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1337725266788264</v>
+        <v>0.1192639563641328</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01898343155093229</v>
+        <v>0.02645337864371627</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>37</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2082115622.454888</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1356522198.786794</v>
+        <v>1433793999.161739</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1436468421774036</v>
+        <v>0.179441964426568</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03500886906039256</v>
+        <v>0.0255696556419052</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>678261143.5572029</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5321009899.991528</v>
+        <v>4798126783.681226</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1273659897186923</v>
+        <v>0.1081955733191574</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0466949266970622</v>
+        <v>0.03937443572422733</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>34</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2660504862.187357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3542019957.439976</v>
+        <v>2524607522.902955</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1916791257248786</v>
+        <v>0.1654107983086486</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02281530512319937</v>
+        <v>0.02498592479056196</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>36</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1771010105.856497</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2926850981.741406</v>
+        <v>2984369952.675189</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1172521808180825</v>
+        <v>0.135947460052054</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02373066881106472</v>
+        <v>0.0271338728154246</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>40</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1463425478.180294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1792881581.118554</v>
+        <v>1577950949.502766</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1746405907472434</v>
+        <v>0.1275074753720623</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04390110163100394</v>
+        <v>0.0308821108934255</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>896440817.4685668</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3557040854.006058</v>
+        <v>4051611980.0299</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09727340402166552</v>
+        <v>0.07683319936443948</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04687475319484905</v>
+        <v>0.03837767116723556</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>34</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1778520509.095652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4684270735.631154</v>
+        <v>4865457931.567657</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1520959056753044</v>
+        <v>0.1752239628974344</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02920649031777649</v>
+        <v>0.02280164181960163</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>36</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2342135451.748321</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3890035384.768735</v>
+        <v>5950029478.821341</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1604331084087819</v>
+        <v>0.1138370711982633</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03038455285951783</v>
+        <v>0.02041328929559748</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>42</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1945017717.4481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5639381767.927239</v>
+        <v>3516341637.718058</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1276293466964076</v>
+        <v>0.1127166495516134</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04296629404175444</v>
+        <v>0.04264736966780256</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>34</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2819690945.361526</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2156345841.773626</v>
+        <v>2110813638.185183</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08462200665856889</v>
+        <v>0.07960039723517759</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04203507208069621</v>
+        <v>0.03115357149140743</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>37</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1078173010.505631</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4467344818.851375</v>
+        <v>4059403322.068023</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1601570448847908</v>
+        <v>0.1014316599504287</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04163717998107515</v>
+        <v>0.03665372644393091</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>37</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2233672433.479149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1837037457.094375</v>
+        <v>1775183143.312334</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1199379616619581</v>
+        <v>0.1453370894275293</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05829700928495906</v>
+        <v>0.05706392897925013</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>918518712.3579607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3550406243.533468</v>
+        <v>3627031253.481661</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07243635324806789</v>
+        <v>0.08363202008207675</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04542744801984463</v>
+        <v>0.04533751534395644</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>33</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1775203134.514792</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4175819477.175595</v>
+        <v>5541233023.904726</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1224996667289235</v>
+        <v>0.1814951529962961</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02381111987029246</v>
+        <v>0.02307503225493011</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>42</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2087909782.707393</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1876923521.983853</v>
+        <v>2150329033.358769</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1036521662454472</v>
+        <v>0.08477446167355467</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03471738902266313</v>
+        <v>0.03405767154655161</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>938461727.1417853</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2852960939.997822</v>
+        <v>2997585428.443849</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09056189988080647</v>
+        <v>0.06846718271331607</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04941156968049239</v>
+        <v>0.03180998056102615</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>44</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1426480479.390572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3781397231.687194</v>
+        <v>3250364838.363478</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1753417627318966</v>
+        <v>0.1119481847027747</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02715862238120691</v>
+        <v>0.03348189554817177</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>40</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1890698613.658211</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1695086889.969623</v>
+        <v>2053300679.41962</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1146849301708178</v>
+        <v>0.1673251359662556</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02835607496478083</v>
+        <v>0.02966337481463132</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>847543437.7606683</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4246031324.046864</v>
+        <v>5366880799.586892</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07942735608582636</v>
+        <v>0.07791517563719623</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02648342137776725</v>
+        <v>0.03305726314972447</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2123015657.02505</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2273087918.510776</v>
+        <v>2155018570.816781</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1488390667882154</v>
+        <v>0.1467336219920222</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02385244543525597</v>
+        <v>0.0253879878648803</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1136544061.07385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4060408155.258615</v>
+        <v>3241324181.443067</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1032798409508267</v>
+        <v>0.1008105728250214</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03726376201748639</v>
+        <v>0.05506377736992628</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>41</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2030204038.986924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1918967051.822714</v>
+        <v>1899896389.505196</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1732443753985035</v>
+        <v>0.1531768907220251</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02989609146174786</v>
+        <v>0.03631694054299821</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>959483633.3595432</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5254146810.812421</v>
+        <v>5058159292.856199</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08852552564136605</v>
+        <v>0.108825302727049</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02767216470458114</v>
+        <v>0.03547772941617276</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>24</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2627073467.178588</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3924546969.458848</v>
+        <v>3190546598.32142</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09063578878970173</v>
+        <v>0.09447292828075086</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03222940336844283</v>
+        <v>0.02988096645836574</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>29</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1962273445.090885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4430186249.185208</v>
+        <v>3797386756.523202</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1851625155116591</v>
+        <v>0.1519332061791311</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02059971387836757</v>
+        <v>0.02139534071639253</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>43</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2215093140.308821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1923632230.86491</v>
+        <v>2144186351.78345</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1578507251662141</v>
+        <v>0.1004784239357822</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03786064017562635</v>
+        <v>0.04258200015005707</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>961816091.2046418</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2528018598.102338</v>
+        <v>2411830970.743709</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09374633609508157</v>
+        <v>0.07802698994705769</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04538360308916514</v>
+        <v>0.04892838219041816</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1264009226.663462</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3365013232.219691</v>
+        <v>3524015406.432277</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1536344779135549</v>
+        <v>0.1723687408904356</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04011489321950813</v>
+        <v>0.04766420524171051</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>44</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1682506716.485951</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2036341656.760575</v>
+        <v>2223505810.137078</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1570156376494923</v>
+        <v>0.1645055577560578</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01960104882627522</v>
+        <v>0.0245172827521751</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1018170861.010418</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1386565435.237481</v>
+        <v>1108511863.011049</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1678032073117414</v>
+        <v>0.118056753390943</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04442704591549242</v>
+        <v>0.0426600084339472</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>693282820.9644144</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3587639636.215125</v>
+        <v>2385767931.409603</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1497921235257201</v>
+        <v>0.1776260112170495</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03158568323216842</v>
+        <v>0.02673027534214851</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>46</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1793819906.5537</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3046841789.120868</v>
+        <v>3045052902.050241</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1171468521484064</v>
+        <v>0.1305392755135139</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03355420703760754</v>
+        <v>0.02873676337345088</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>40</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1523420929.177187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1542280174.697752</v>
+        <v>1435918375.464428</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09109405361744539</v>
+        <v>0.09027890180746218</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0376960639060726</v>
+        <v>0.04581265809943057</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>771140073.7407687</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1760962964.454</v>
+        <v>1570523843.81762</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1653491348406499</v>
+        <v>0.1183134027547634</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03769585194273291</v>
+        <v>0.05380306198826165</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>880481486.3130414</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2598102283.772683</v>
+        <v>1978167098.55232</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09690509446841372</v>
+        <v>0.08962995013231145</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02986707045549321</v>
+        <v>0.0376715916717144</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>27</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1299051133.188957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4961610407.553699</v>
+        <v>4109391426.047591</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1382944985315397</v>
+        <v>0.1157177882878923</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04490133355514143</v>
+        <v>0.04393395681358379</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>34</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2480805142.179164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1533199098.169836</v>
+        <v>2212494131.486615</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1515590377750032</v>
+        <v>0.1290248383168244</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04030790401527194</v>
+        <v>0.04105852772882606</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>766599486.5906957</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2301779136.835325</v>
+        <v>2409985517.808626</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08632935057063937</v>
+        <v>0.1129628732149804</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03719094543263118</v>
+        <v>0.03513967183460198</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>27</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1150889618.860556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1757410102.747481</v>
+        <v>1519612228.834156</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1071809461544883</v>
+        <v>0.1157327802700379</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03710998271160149</v>
+        <v>0.03980032604933326</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>878705064.1969895</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3918704168.733738</v>
+        <v>3295356215.377119</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1702831305613114</v>
+        <v>0.1745988975237278</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02709291861352331</v>
+        <v>0.02066817642534043</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>38</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1959352134.142988</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3933293135.172055</v>
+        <v>2681824907.410816</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1218266935655439</v>
+        <v>0.1047216401210037</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03266255422857103</v>
+        <v>0.02739156549080521</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>31</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1966646615.507384</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2389383860.51734</v>
+        <v>2828434738.679104</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1185948216517823</v>
+        <v>0.141442187965895</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02934704847717598</v>
+        <v>0.02141187352085025</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>36</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1194691871.907438</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2937999552.018076</v>
+        <v>3005049866.81024</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1668668536656356</v>
+        <v>0.1246677693069693</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01697843258574609</v>
+        <v>0.02061629180280042</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>36</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1468999761.862323</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2967454134.847273</v>
+        <v>2797309081.761248</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1694815134449794</v>
+        <v>0.141385326090793</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05740009688343595</v>
+        <v>0.0385500509552372</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>49</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1483727152.128163</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_116.xlsx
+++ b/output/fit_clients/fit_round_116.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2229306102.046221</v>
+        <v>1550172007.664496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0935874253831098</v>
+        <v>0.1110939728407885</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03479373422475681</v>
+        <v>0.03942060070822702</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1885821184.765273</v>
+        <v>1640813192.317043</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1418586031791183</v>
+        <v>0.1308566113904175</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04444591106916207</v>
+        <v>0.03811849377095425</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3465435376.087709</v>
+        <v>5210297529.429873</v>
       </c>
       <c r="F4" t="n">
-        <v>0.119458890821037</v>
+        <v>0.1585137397022415</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03322366349085848</v>
+        <v>0.03678185105963751</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3690296949.538403</v>
+        <v>4002689651.152426</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09682265511685956</v>
+        <v>0.07418757693461664</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03104802106105712</v>
+        <v>0.03928595750735378</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2578637425.506092</v>
+        <v>2722622893.344215</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1401767141867661</v>
+        <v>0.1172431565911864</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04841696511163167</v>
+        <v>0.0549638069584238</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2291146631.018063</v>
+        <v>2502980632.902276</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07552577534867462</v>
+        <v>0.08476388251142225</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04458519164743845</v>
+        <v>0.03138891884820564</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3906075097.078775</v>
+        <v>2994106254.759975</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1962981654909486</v>
+        <v>0.214983410500178</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03106199712991334</v>
+        <v>0.03226341790118874</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2212734245.38871</v>
+        <v>1987735827.634615</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1198023878208665</v>
+        <v>0.1469639641569837</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03745301720258926</v>
+        <v>0.03342078382083211</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5155013697.916652</v>
+        <v>5449073111.272712</v>
       </c>
       <c r="F10" t="n">
-        <v>0.142212964756765</v>
+        <v>0.1532779471182721</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05046176324682004</v>
+        <v>0.05000958807780089</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4099080948.356067</v>
+        <v>2740593284.040816</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1219344365500868</v>
+        <v>0.1821504990613381</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03812097182060116</v>
+        <v>0.04207779538450617</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3144975104.77346</v>
+        <v>3245982357.497855</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1666732430455335</v>
+        <v>0.1876077545950026</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0417407121771466</v>
+        <v>0.04633526879204938</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4092779636.447782</v>
+        <v>5071013409.133686</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06283910462968489</v>
+        <v>0.09136337651725031</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02308455456235228</v>
+        <v>0.03110435152225135</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2918027376.015559</v>
+        <v>2663730324.192345</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1252372173328549</v>
+        <v>0.1340631739095528</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03618572980990076</v>
+        <v>0.02900020077979557</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1363941857.409508</v>
+        <v>1449973841.316073</v>
       </c>
       <c r="F15" t="n">
-        <v>0.107879383843173</v>
+        <v>0.07863297877958597</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0343468535254304</v>
+        <v>0.0385676735248253</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1943518749.008464</v>
+        <v>2245341228.294354</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1056827778190669</v>
+        <v>0.07125040834770392</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04996306089706011</v>
+        <v>0.0423606172874236</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4082342267.888809</v>
+        <v>4382056366.134984</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1576401991709398</v>
+        <v>0.1755782349473077</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04656026287166582</v>
+        <v>0.0385772019081751</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2436869651.252544</v>
+        <v>3546086684.243988</v>
       </c>
       <c r="F18" t="n">
-        <v>0.129124465931919</v>
+        <v>0.1292237317654571</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02430544778430482</v>
+        <v>0.02951952869950264</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>895229627.4205306</v>
+        <v>915086557.9293185</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1545774000625412</v>
+        <v>0.1506870712415311</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02256827330620853</v>
+        <v>0.02699742343281477</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2186438786.806397</v>
+        <v>2359435505.513132</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1166330238841458</v>
+        <v>0.1607931922702638</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03071246468953983</v>
+        <v>0.02132594196514394</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2079275539.318236</v>
+        <v>1884480825.686342</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08570391715118417</v>
+        <v>0.06851794016937475</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04472237994738112</v>
+        <v>0.0433945665759907</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2860090305.163826</v>
+        <v>2857407103.139746</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1239309482607372</v>
+        <v>0.1132186816262419</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04316568291311892</v>
+        <v>0.03441981494363083</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1237758711.755604</v>
+        <v>1186631994.128335</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1566969465204772</v>
+        <v>0.1840900840376426</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04969855485360847</v>
+        <v>0.0508427579889188</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4102590632.292759</v>
+        <v>3260208012.67176</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1006760006619606</v>
+        <v>0.09987890745449149</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03277425914184442</v>
+        <v>0.02280960904948229</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1181735241.896711</v>
+        <v>1324996874.438843</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0813602975266515</v>
+        <v>0.09887777826269803</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01910538336740056</v>
+        <v>0.02106227208631969</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1141995359.988022</v>
+        <v>1434838048.498205</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09808172582310698</v>
+        <v>0.09996098640123854</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02406279984677875</v>
+        <v>0.03667320414365615</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3273035625.87857</v>
+        <v>2862895029.799832</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1373037363867841</v>
+        <v>0.1133073973819026</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0235266168723484</v>
+        <v>0.02436447630421669</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2579397486.181009</v>
+        <v>3096153184.388377</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1297205637846525</v>
+        <v>0.097381199571957</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0481624465209048</v>
+        <v>0.0490299903996663</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4132545547.841818</v>
+        <v>3630864890.785607</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1330056547998919</v>
+        <v>0.1383272056926471</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04519017527420886</v>
+        <v>0.04356023657408019</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1655759151.186807</v>
+        <v>1928540028.289917</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1013275204206623</v>
+        <v>0.08970597829262933</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02490480154149266</v>
+        <v>0.03301194344806083</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1081023722.924307</v>
+        <v>1177017854.183735</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0957480866312599</v>
+        <v>0.1044197115614818</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03441913554262159</v>
+        <v>0.03840829265974829</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1299786840.411194</v>
+        <v>1354387854.297296</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07844410681162113</v>
+        <v>0.09900925700514986</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03444548155641317</v>
+        <v>0.02544350987566552</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2395985652.151509</v>
+        <v>2189087711.573209</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2057965991107891</v>
+        <v>0.1783627360965864</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03836002101929317</v>
+        <v>0.03853761838551886</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1058300505.49758</v>
+        <v>1243846753.395195</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09407079749161064</v>
+        <v>0.07505238402985452</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01832740546432132</v>
+        <v>0.02037026709358985</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>854321845.0471653</v>
+        <v>1004200698.762759</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07808995252286118</v>
+        <v>0.116749283446628</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03149073070350211</v>
+        <v>0.04024053667787073</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3053453546.391071</v>
+        <v>2036682410.331649</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1140750014662573</v>
+        <v>0.1353990497141888</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02651853147533314</v>
+        <v>0.02623162067847901</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2640719505.024924</v>
+        <v>2060192223.150245</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09049023844058413</v>
+        <v>0.1029499827089107</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03321369088557466</v>
+        <v>0.03196523230168966</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1646400645.37292</v>
+        <v>1985190763.538965</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08638188734134113</v>
+        <v>0.1047523504079292</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02491863115085591</v>
+        <v>0.02662575490309359</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1655023450.16749</v>
+        <v>1841764523.656854</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1511555006954449</v>
+        <v>0.122188254293622</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02805227085352994</v>
+        <v>0.02409670042858233</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1742062839.575086</v>
+        <v>1565594314.100627</v>
       </c>
       <c r="F40" t="n">
-        <v>0.108267960337381</v>
+        <v>0.1541003106153239</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04930578217485818</v>
+        <v>0.05761166375994675</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2867056145.154295</v>
+        <v>2642522149.548264</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1320157834707082</v>
+        <v>0.1233554347481076</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04305194658741967</v>
+        <v>0.04255480397486496</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3272356311.981347</v>
+        <v>3915188983.497221</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1026970231186104</v>
+        <v>0.08160905173406845</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0309565276502453</v>
+        <v>0.02839307116506864</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3010048721.597742</v>
+        <v>1948249128.980395</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1779898611823192</v>
+        <v>0.1441485883948982</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02558198876276012</v>
+        <v>0.01655149862796782</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1687199389.255891</v>
+        <v>2125377692.382563</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08734499201877233</v>
+        <v>0.08891831734115233</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03344321823698081</v>
+        <v>0.03337700171311211</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2048876049.792305</v>
+        <v>2003271916.149665</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1664820839257842</v>
+        <v>0.1791800012998797</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05405570512970292</v>
+        <v>0.04775524695436552</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4502595533.62097</v>
+        <v>4992373982.971866</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1262881416875926</v>
+        <v>0.1665929549172192</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05837348880489578</v>
+        <v>0.03949137809248197</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4986214251.981163</v>
+        <v>4817608524.573961</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1249361374630374</v>
+        <v>0.1608175675236677</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04080131739953292</v>
+        <v>0.04839465654809198</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3138617093.724778</v>
+        <v>3040117412.73484</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09723236469521615</v>
+        <v>0.08987920490915238</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02968030096217792</v>
+        <v>0.03565514841324083</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1556026010.487078</v>
+        <v>1972600995.859124</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1480656981874373</v>
+        <v>0.156940241882332</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03659448888121131</v>
+        <v>0.0404939502042228</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2831008586.853813</v>
+        <v>3321864629.78274</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1717730913413087</v>
+        <v>0.1643285831582377</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04929924794811823</v>
+        <v>0.05001442927683099</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1335329893.419383</v>
+        <v>1004006990.295363</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1516204711343634</v>
+        <v>0.125700094130411</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04942717434301241</v>
+        <v>0.0525484919206365</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3796945146.303349</v>
+        <v>3510161024.064558</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1128425548957927</v>
+        <v>0.1193240070040783</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05777211817737776</v>
+        <v>0.05075320770959423</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3030358519.487179</v>
+        <v>3370024210.253831</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1805594622229713</v>
+        <v>0.1806665549146748</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02663398767972443</v>
+        <v>0.03238752065640975</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3438626385.967947</v>
+        <v>3109523204.069882</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1397008543695979</v>
+        <v>0.1081650793834014</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04171206634778454</v>
+        <v>0.04524596917258834</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4761840720.595738</v>
+        <v>3006642056.331282</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1843425677419039</v>
+        <v>0.1924664757736914</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02620634292267037</v>
+        <v>0.0261965725039369</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1645395905.856163</v>
+        <v>1754338390.589154</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1178984205556634</v>
+        <v>0.1465213312857136</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04633145659454133</v>
+        <v>0.05737966049946532</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3911818344.505299</v>
+        <v>3517916824.689469</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1192639563641328</v>
+        <v>0.1438988037718007</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02645337864371627</v>
+        <v>0.01948583368500874</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1433793999.161739</v>
+        <v>1784131844.034354</v>
       </c>
       <c r="F58" t="n">
-        <v>0.179441964426568</v>
+        <v>0.151429793357859</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0255696556419052</v>
+        <v>0.03384277426284218</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4798126783.681226</v>
+        <v>3377184111.395629</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1081955733191574</v>
+        <v>0.08057806475284984</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03937443572422733</v>
+        <v>0.03946216763095912</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2524607522.902955</v>
+        <v>3653731047.576026</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1654107983086486</v>
+        <v>0.1778649396966887</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02498592479056196</v>
+        <v>0.02513190669723599</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2984369952.675189</v>
+        <v>2883431047.087908</v>
       </c>
       <c r="F61" t="n">
-        <v>0.135947460052054</v>
+        <v>0.1099024813639579</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0271338728154246</v>
+        <v>0.02420267032162445</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1577950949.502766</v>
+        <v>1493231773.638127</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1275074753720623</v>
+        <v>0.1517468080408267</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0308821108934255</v>
+        <v>0.04398957916543741</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4051611980.0299</v>
+        <v>4553174996.671894</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07683319936443948</v>
+        <v>0.08275231885719529</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03837767116723556</v>
+        <v>0.03350752677500213</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4865457931.567657</v>
+        <v>4554704069.91417</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1752239628974344</v>
+        <v>0.1336379167903566</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02280164181960163</v>
+        <v>0.02924505552878501</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5950029478.821341</v>
+        <v>4574350992.726248</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1138370711982633</v>
+        <v>0.120870471034324</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02041328929559748</v>
+        <v>0.03012380176945612</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3516341637.718058</v>
+        <v>4475366387.493768</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1127166495516134</v>
+        <v>0.1286040183011394</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04264736966780256</v>
+        <v>0.0483586351615772</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2110813638.185183</v>
+        <v>3212640148.667065</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07960039723517759</v>
+        <v>0.08259457653803309</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03115357149140743</v>
+        <v>0.03491987465273896</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4059403322.068023</v>
+        <v>5450072261.61622</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1014316599504287</v>
+        <v>0.1404522009673757</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03665372644393091</v>
+        <v>0.04374353783267177</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1775183143.312334</v>
+        <v>2380295051.675453</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1453370894275293</v>
+        <v>0.1714310272469431</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05706392897925013</v>
+        <v>0.04356017764604051</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3627031253.481661</v>
+        <v>2925424837.535536</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08363202008207675</v>
+        <v>0.09010934377949271</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04533751534395644</v>
+        <v>0.04317556782449405</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5541233023.904726</v>
+        <v>4805826702.371881</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1814951529962961</v>
+        <v>0.1338166153929993</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02307503225493011</v>
+        <v>0.03040331543438558</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2150329033.358769</v>
+        <v>1752393279.212194</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08477446167355467</v>
+        <v>0.1016103932364451</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03405767154655161</v>
+        <v>0.04081803383500689</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2997585428.443849</v>
+        <v>2942947725.571072</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06846718271331607</v>
+        <v>0.1025833160101822</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03180998056102615</v>
+        <v>0.04990928507678685</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3250364838.363478</v>
+        <v>2497039169.966708</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1119481847027747</v>
+        <v>0.1727536238454644</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03348189554817177</v>
+        <v>0.02512343133056708</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2053300679.41962</v>
+        <v>2491492117.396053</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1673251359662556</v>
+        <v>0.1146586925263372</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02966337481463132</v>
+        <v>0.02770937131332254</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5366880799.586892</v>
+        <v>4503786251.612978</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07791517563719623</v>
+        <v>0.1034721398135299</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03305726314972447</v>
+        <v>0.03383139992794665</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2155018570.816781</v>
+        <v>1568854384.505878</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1467336219920222</v>
+        <v>0.120494672287167</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0253879878648803</v>
+        <v>0.02924745978259339</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3241324181.443067</v>
+        <v>3934530327.236203</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1008105728250214</v>
+        <v>0.1305259129014959</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05506377736992628</v>
+        <v>0.03586153204236212</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1899896389.505196</v>
+        <v>1610731392.974046</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1531768907220251</v>
+        <v>0.1502692718446783</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03631694054299821</v>
+        <v>0.0266554327776791</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5058159292.856199</v>
+        <v>4513631231.192386</v>
       </c>
       <c r="F80" t="n">
-        <v>0.108825302727049</v>
+        <v>0.09273062488393649</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03547772941617276</v>
+        <v>0.02423886840462617</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3190546598.32142</v>
+        <v>4069541834.515397</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09447292828075086</v>
+        <v>0.1338105236908915</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02988096645836574</v>
+        <v>0.02397548960700141</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3797386756.523202</v>
+        <v>4806820809.056151</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1519332061791311</v>
+        <v>0.2174766268123336</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02139534071639253</v>
+        <v>0.02128057254512206</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2144186351.78345</v>
+        <v>1792599251.066635</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1004784239357822</v>
+        <v>0.1417152938520717</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04258200015005707</v>
+        <v>0.04474632287960934</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2411830970.743709</v>
+        <v>1905016387.363562</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07802698994705769</v>
+        <v>0.1210305947617412</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04892838219041816</v>
+        <v>0.03693265249327961</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3524015406.432277</v>
+        <v>2945200486.377437</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1723687408904356</v>
+        <v>0.1453293313318326</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04766420524171051</v>
+        <v>0.05496469685192275</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2223505810.137078</v>
+        <v>2410829653.030864</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1645055577560578</v>
+        <v>0.1215643697338955</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0245172827521751</v>
+        <v>0.0242991716151077</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1108511863.011049</v>
+        <v>1451502415.004359</v>
       </c>
       <c r="F87" t="n">
-        <v>0.118056753390943</v>
+        <v>0.1167478033555278</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0426600084339472</v>
+        <v>0.03227507609720816</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2385767931.409603</v>
+        <v>2915079475.873089</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1776260112170495</v>
+        <v>0.1110746959523536</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02673027534214851</v>
+        <v>0.03228457526634093</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3045052902.050241</v>
+        <v>2904026076.290516</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1305392755135139</v>
+        <v>0.1291622004557977</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02873676337345088</v>
+        <v>0.02800578269387295</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1435918375.464428</v>
+        <v>1732593508.317938</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09027890180746218</v>
+        <v>0.08612035759163504</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04581265809943057</v>
+        <v>0.04381511026320169</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1570523843.81762</v>
+        <v>1544501752.133837</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1183134027547634</v>
+        <v>0.16918117496805</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05380306198826165</v>
+        <v>0.04985923729342974</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1978167098.55232</v>
+        <v>2206853163.864617</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08962995013231145</v>
+        <v>0.06726171727859161</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0376715916717144</v>
+        <v>0.03959256042895112</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4109391426.047591</v>
+        <v>3894867413.870988</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1157177882878923</v>
+        <v>0.1360147277012206</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04393395681358379</v>
+        <v>0.0384821270991611</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2212494131.486615</v>
+        <v>2060418918.611186</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1290248383168244</v>
+        <v>0.119898088897986</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04105852772882606</v>
+        <v>0.04169874918331372</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2409985517.808626</v>
+        <v>3190142484.118191</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1129628732149804</v>
+        <v>0.1201919813982795</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03513967183460198</v>
+        <v>0.04470132906478751</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1519612228.834156</v>
+        <v>1719021688.718873</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1157327802700379</v>
+        <v>0.1154412964129407</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03980032604933326</v>
+        <v>0.03784295028533739</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3295356215.377119</v>
+        <v>4288955637.91569</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1745988975237278</v>
+        <v>0.1506175680536594</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02066817642534043</v>
+        <v>0.02613493715027584</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2681824907.410816</v>
+        <v>2586990895.550867</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1047216401210037</v>
+        <v>0.1221415903064272</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02739156549080521</v>
+        <v>0.02979908663124133</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2828434738.679104</v>
+        <v>3388663553.816555</v>
       </c>
       <c r="F99" t="n">
-        <v>0.141442187965895</v>
+        <v>0.1465449873404379</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02141187352085025</v>
+        <v>0.03166167227456874</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3005049866.81024</v>
+        <v>2902213721.608656</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1246677693069693</v>
+        <v>0.145041908039368</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02061629180280042</v>
+        <v>0.02295109397583281</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2797309081.761248</v>
+        <v>2946310066.104222</v>
       </c>
       <c r="F101" t="n">
-        <v>0.141385326090793</v>
+        <v>0.156385160778758</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0385500509552372</v>
+        <v>0.04869654272948629</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_116.xlsx
+++ b/output/fit_clients/fit_round_116.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1550172007.664496</v>
+        <v>1722005646.208364</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1110939728407885</v>
+        <v>0.1145248017728017</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03942060070822702</v>
+        <v>0.03123108216001603</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1640813192.317043</v>
+        <v>2151251352.376222</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1308566113904175</v>
+        <v>0.15458455872613</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03811849377095425</v>
+        <v>0.04806879747880902</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5210297529.429873</v>
+        <v>5063548122.266172</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1585137397022415</v>
+        <v>0.106731610426702</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03678185105963751</v>
+        <v>0.02483676209105998</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>70</v>
+      </c>
+      <c r="J4" t="n">
+        <v>116</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4002689651.152426</v>
+        <v>2651526230.479197</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07418757693461664</v>
+        <v>0.1088360778362524</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03928595750735378</v>
+        <v>0.04058592793425315</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>109</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2722622893.344215</v>
+        <v>2487998667.008307</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1172431565911864</v>
+        <v>0.1000211147172271</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0549638069584238</v>
+        <v>0.05074652610805323</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2502980632.902276</v>
+        <v>2665358700.366315</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08476388251142225</v>
+        <v>0.06366942805755202</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03138891884820564</v>
+        <v>0.03104061796805349</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2994106254.759975</v>
+        <v>3308939675.915218</v>
       </c>
       <c r="F8" t="n">
-        <v>0.214983410500178</v>
+        <v>0.1978262386643083</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03226341790118874</v>
+        <v>0.02451235731099845</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>33</v>
+      </c>
+      <c r="J8" t="n">
+        <v>114</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1987735827.634615</v>
+        <v>1668118617.820035</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1469639641569837</v>
+        <v>0.1364930411364912</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03342078382083211</v>
+        <v>0.02766574817066872</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5449073111.272712</v>
+        <v>3802104420.728913</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1532779471182721</v>
+        <v>0.1807147904655772</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05000958807780089</v>
+        <v>0.04815836167394031</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>106</v>
+      </c>
+      <c r="J10" t="n">
+        <v>116</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +810,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2740593284.040816</v>
+        <v>2935464335.767035</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1821504990613381</v>
+        <v>0.17021979993568</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04207779538450617</v>
+        <v>0.03507397389420007</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>48</v>
+      </c>
+      <c r="J11" t="n">
+        <v>115</v>
+      </c>
+      <c r="K11" t="n">
+        <v>88.42303574858771</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3245982357.497855</v>
+        <v>2697374143.465118</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1876077545950026</v>
+        <v>0.1598294032655361</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04633526879204938</v>
+        <v>0.03551028423894542</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +888,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5071013409.133686</v>
+        <v>4047523628.825626</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09136337651725031</v>
+        <v>0.07573441756014433</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03110435152225135</v>
+        <v>0.02642456799668955</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>58</v>
+      </c>
+      <c r="J13" t="n">
+        <v>115</v>
+      </c>
+      <c r="K13" t="n">
+        <v>148.3913506747621</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +925,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2663730324.192345</v>
+        <v>3089061021.793083</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1340631739095528</v>
+        <v>0.1554591855378746</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02900020077979557</v>
+        <v>0.03890229610854044</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>115</v>
+      </c>
+      <c r="K14" t="n">
+        <v>86.61554281277252</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1449973841.316073</v>
+        <v>1186008664.105897</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07863297877958597</v>
+        <v>0.09296623663115389</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0385676735248253</v>
+        <v>0.04584736432270996</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2245341228.294354</v>
+        <v>1901276886.199723</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07125040834770392</v>
+        <v>0.07423053654953869</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0423606172874236</v>
+        <v>0.03915859937207736</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4382056366.134984</v>
+        <v>4198312692.131631</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1755782349473077</v>
+        <v>0.1070412935841879</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0385772019081751</v>
+        <v>0.04695913109380266</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>56</v>
+      </c>
+      <c r="J17" t="n">
+        <v>115</v>
+      </c>
+      <c r="K17" t="n">
+        <v>135.5320697957775</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3546086684.243988</v>
+        <v>3717198043.295005</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1292237317654571</v>
+        <v>0.1537395977238517</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02951952869950264</v>
+        <v>0.02780317213216023</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" t="n">
+        <v>116</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>915086557.9293185</v>
+        <v>902265370.1218256</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1506870712415311</v>
+        <v>0.1804224281819168</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02699742343281477</v>
+        <v>0.02211235734789391</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2359435505.513132</v>
+        <v>2267349116.751855</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1607931922702638</v>
+        <v>0.1204211389902855</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02132594196514394</v>
+        <v>0.02276371193552538</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1884480825.686342</v>
+        <v>2491674644.66898</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06851794016937475</v>
+        <v>0.07225775102307422</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0433945665759907</v>
+        <v>0.03415611640084423</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2857407103.139746</v>
+        <v>3609771031.371619</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1132186816262419</v>
+        <v>0.1035095537830364</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03441981494363083</v>
+        <v>0.03976143321761393</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>29</v>
+      </c>
+      <c r="J22" t="n">
+        <v>116</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1186631994.128335</v>
+        <v>1347485365.109036</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1840900840376426</v>
+        <v>0.161934334147496</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0508427579889188</v>
+        <v>0.03727414982657357</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3260208012.67176</v>
+        <v>2829079555.927282</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09987890745449149</v>
+        <v>0.1480402383165798</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02280960904948229</v>
+        <v>0.03205890408406079</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>35</v>
+      </c>
+      <c r="J24" t="n">
+        <v>113</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1324996874.438843</v>
+        <v>1228369940.55112</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09887777826269803</v>
+        <v>0.07556492071029336</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02106227208631969</v>
+        <v>0.02722306099338564</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1434838048.498205</v>
+        <v>1039598268.216044</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09996098640123854</v>
+        <v>0.1212973990411448</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03667320414365615</v>
+        <v>0.02483552704795349</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2862895029.799832</v>
+        <v>4319355187.468585</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1133073973819026</v>
+        <v>0.1450854884362003</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02436447630421669</v>
+        <v>0.02400482185586029</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>46</v>
+      </c>
+      <c r="J27" t="n">
+        <v>115</v>
+      </c>
+      <c r="K27" t="n">
+        <v>127.631058728316</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3096153184.388377</v>
+        <v>2371240071.289545</v>
       </c>
       <c r="F28" t="n">
-        <v>0.097381199571957</v>
+        <v>0.1404615226383571</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0490299903996663</v>
+        <v>0.04666450351972393</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>113</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3630864890.785607</v>
+        <v>4180937242.766162</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1383272056926471</v>
+        <v>0.1047850760435055</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04356023657408019</v>
+        <v>0.04599864891558193</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>107</v>
+      </c>
+      <c r="J29" t="n">
+        <v>116</v>
+      </c>
+      <c r="K29" t="n">
+        <v>180.5775379097818</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1928540028.289917</v>
+        <v>1613529877.770094</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08970597829262933</v>
+        <v>0.09763497694053801</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03301194344806083</v>
+        <v>0.0339374817742422</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1177017854.183735</v>
+        <v>1343403019.558048</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1044197115614818</v>
+        <v>0.1053750858770621</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03840829265974829</v>
+        <v>0.05202038203424671</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1354387854.297296</v>
+        <v>1499572922.539082</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09900925700514986</v>
+        <v>0.120540670112607</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02544350987566552</v>
+        <v>0.02365108957112234</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2189087711.573209</v>
+        <v>2168950319.45679</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1783627360965864</v>
+        <v>0.1395429697576411</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03853761838551886</v>
+        <v>0.03776456826702682</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1243846753.395195</v>
+        <v>1254816297.755524</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07505238402985452</v>
+        <v>0.1131280580117364</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02037026709358985</v>
+        <v>0.02204255587362479</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1004200698.762759</v>
+        <v>1038929938.844265</v>
       </c>
       <c r="F35" t="n">
-        <v>0.116749283446628</v>
+        <v>0.07609977854177623</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04024053667787073</v>
+        <v>0.04048840268885642</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2036682410.331649</v>
+        <v>2618948423.897172</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1353990497141888</v>
+        <v>0.1584772801660244</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02623162067847901</v>
+        <v>0.0279134315587295</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2060192223.150245</v>
+        <v>2047645874.957285</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1029499827089107</v>
+        <v>0.07330211557822786</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03196523230168966</v>
+        <v>0.04153243165088902</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1985190763.538965</v>
+        <v>2083459169.924724</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1047523504079292</v>
+        <v>0.1152523952414386</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02662575490309359</v>
+        <v>0.03610662353547247</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1841764523.656854</v>
+        <v>2040837856.830155</v>
       </c>
       <c r="F39" t="n">
-        <v>0.122188254293622</v>
+        <v>0.1798058846683804</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02409670042858233</v>
+        <v>0.02074740638776072</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1565594314.100627</v>
+        <v>1814625654.422686</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1541003106153239</v>
+        <v>0.126600555983142</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05761166375994675</v>
+        <v>0.03799187184170894</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2642522149.548264</v>
+        <v>2524220446.469202</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1233554347481076</v>
+        <v>0.1157160081776374</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04255480397486496</v>
+        <v>0.03192406476554486</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3915188983.497221</v>
+        <v>3309015139.436579</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08160905173406845</v>
+        <v>0.09111389907501974</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02839307116506864</v>
+        <v>0.03202353040254827</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>42</v>
+      </c>
+      <c r="J42" t="n">
+        <v>113</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1948249128.980395</v>
+        <v>3067006053.11514</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1441485883948982</v>
+        <v>0.192757837134443</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01655149862796782</v>
+        <v>0.01968394703736282</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2125377692.382563</v>
+        <v>1723866331.108196</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08891831734115233</v>
+        <v>0.09681664058983243</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03337700171311211</v>
+        <v>0.03192960577670884</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2003271916.149665</v>
+        <v>2141095194.521847</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1791800012998797</v>
+        <v>0.1743919255372281</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04775524695436552</v>
+        <v>0.04075130662621747</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4992373982.971866</v>
+        <v>4330741394.298531</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1665929549172192</v>
+        <v>0.1738104808213075</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03949137809248197</v>
+        <v>0.03910310757744442</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>66</v>
+      </c>
+      <c r="J46" t="n">
+        <v>116</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2088,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4817608524.573961</v>
+        <v>3525368383.456603</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1608175675236677</v>
+        <v>0.1315414098580649</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04839465654809198</v>
+        <v>0.05458348378263295</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>51</v>
+      </c>
+      <c r="J47" t="n">
+        <v>116</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3040117412.73484</v>
+        <v>4711919857.265903</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08987920490915238</v>
+        <v>0.0919116407352336</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03565514841324083</v>
+        <v>0.02525544029714368</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>44</v>
+      </c>
+      <c r="J48" t="n">
+        <v>116</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1972600995.859124</v>
+        <v>1576119400.576156</v>
       </c>
       <c r="F49" t="n">
-        <v>0.156940241882332</v>
+        <v>0.1512744268045813</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0404939502042228</v>
+        <v>0.03353699617318301</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3321864629.78274</v>
+        <v>2735771323.048545</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1643285831582377</v>
+        <v>0.1425491923289043</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05001442927683099</v>
+        <v>0.05038738281535625</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>40</v>
+      </c>
+      <c r="J50" t="n">
+        <v>114</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1004006990.295363</v>
+        <v>928996321.900704</v>
       </c>
       <c r="F51" t="n">
-        <v>0.125700094130411</v>
+        <v>0.1255248755155456</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0525484919206365</v>
+        <v>0.04426447828886357</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3510161024.064558</v>
+        <v>4595870327.968167</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1193240070040783</v>
+        <v>0.08817176502423785</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05075320770959423</v>
+        <v>0.04436472058937953</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>90</v>
+      </c>
+      <c r="J52" t="n">
+        <v>116</v>
+      </c>
+      <c r="K52" t="n">
+        <v>159.3671689210738</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2294,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3370024210.253831</v>
+        <v>3216761390.068519</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1806665549146748</v>
+        <v>0.1490647122589779</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03238752065640975</v>
+        <v>0.02670598821664847</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>13</v>
+      </c>
+      <c r="J53" t="n">
+        <v>115</v>
+      </c>
+      <c r="K53" t="n">
+        <v>88.64604319196538</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3109523204.069882</v>
+        <v>3021517117.703262</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1081650793834014</v>
+        <v>0.1422428580848177</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04524596917258834</v>
+        <v>0.04665568461370363</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>53</v>
+      </c>
+      <c r="J54" t="n">
+        <v>115</v>
+      </c>
+      <c r="K54" t="n">
+        <v>85.50670612999558</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3006642056.331282</v>
+        <v>4528156097.27392</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1924664757736914</v>
+        <v>0.2062022346345813</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0261965725039369</v>
+        <v>0.02187855199822876</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>53</v>
+      </c>
+      <c r="J55" t="n">
+        <v>115</v>
+      </c>
+      <c r="K55" t="n">
+        <v>140.6807517332841</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1754338390.589154</v>
+        <v>1535630863.286156</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1465213312857136</v>
+        <v>0.1558976310902224</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05737966049946532</v>
+        <v>0.04736445628331442</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3517916824.689469</v>
+        <v>4300228705.285662</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1438988037718007</v>
+        <v>0.1568617102768384</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01948583368500874</v>
+        <v>0.02662103669567594</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>45</v>
+      </c>
+      <c r="J57" t="n">
+        <v>116</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1784131844.034354</v>
+        <v>1231678017.903117</v>
       </c>
       <c r="F58" t="n">
-        <v>0.151429793357859</v>
+        <v>0.1427036262500879</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03384277426284218</v>
+        <v>0.03525941726146523</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3377184111.395629</v>
+        <v>4485144535.491314</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08057806475284984</v>
+        <v>0.1100073972502402</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03946216763095912</v>
+        <v>0.04133495124583712</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>56</v>
+      </c>
+      <c r="J59" t="n">
+        <v>116</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3653731047.576026</v>
+        <v>3511581934.356793</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1778649396966887</v>
+        <v>0.1713649339834746</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02513190669723599</v>
+        <v>0.03106774747748353</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>16</v>
+      </c>
+      <c r="J60" t="n">
+        <v>116</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2883431047.087908</v>
+        <v>2206234884.071419</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1099024813639579</v>
+        <v>0.1556125456792931</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02420267032162445</v>
+        <v>0.03101918581656257</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>110</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1493231773.638127</v>
+        <v>1486177553.130869</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1517468080408267</v>
+        <v>0.13675816575599</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04398957916543741</v>
+        <v>0.036207806213266</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4553174996.671894</v>
+        <v>5354926990.509293</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08275231885719529</v>
+        <v>0.09748009013846572</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03350752677500213</v>
+        <v>0.04504145250157923</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>57</v>
+      </c>
+      <c r="J63" t="n">
+        <v>116</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2691,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4554704069.91417</v>
+        <v>4886497503.710499</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1336379167903566</v>
+        <v>0.1410144814594481</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02924505552878501</v>
+        <v>0.03302406739045636</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>57</v>
+      </c>
+      <c r="J64" t="n">
+        <v>116</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4574350992.726248</v>
+        <v>4057983438.435156</v>
       </c>
       <c r="F65" t="n">
-        <v>0.120870471034324</v>
+        <v>0.128424768992549</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03012380176945612</v>
+        <v>0.02338151356535495</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>96</v>
+      </c>
+      <c r="J65" t="n">
+        <v>116</v>
+      </c>
+      <c r="K65" t="n">
+        <v>157.9952629716109</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4475366387.493768</v>
+        <v>3501011473.804302</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1286040183011394</v>
+        <v>0.1139276234198744</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0483586351615772</v>
+        <v>0.03107609460869314</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>57</v>
+      </c>
+      <c r="J66" t="n">
+        <v>115</v>
+      </c>
+      <c r="K66" t="n">
+        <v>107.0153710268662</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2800,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3212640148.667065</v>
+        <v>2742139993.005811</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08259457653803309</v>
+        <v>0.08108342279501492</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03491987465273896</v>
+        <v>0.03388503353220437</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5450072261.61622</v>
+        <v>4842714794.49662</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1404522009673757</v>
+        <v>0.09972396092703767</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04374353783267177</v>
+        <v>0.04589640981115685</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>58</v>
+      </c>
+      <c r="J68" t="n">
+        <v>115</v>
+      </c>
+      <c r="K68" t="n">
+        <v>144.3035738335806</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2380295051.675453</v>
+        <v>1943667465.973451</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1714310272469431</v>
+        <v>0.1151542676312498</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04356017764604051</v>
+        <v>0.04574731220595989</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2925424837.535536</v>
+        <v>2801413687.632652</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09010934377949271</v>
+        <v>0.08492377160355047</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04317556782449405</v>
+        <v>0.03911205659169385</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>14</v>
+      </c>
+      <c r="J70" t="n">
+        <v>114</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4805826702.371881</v>
+        <v>4008314330.667236</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1338166153929993</v>
+        <v>0.1594048287107784</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03040331543438558</v>
+        <v>0.02212315820890959</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>95</v>
+      </c>
+      <c r="J71" t="n">
+        <v>116</v>
+      </c>
+      <c r="K71" t="n">
+        <v>152.794457769821</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1752393279.212194</v>
+        <v>1390137394.562244</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1016103932364451</v>
+        <v>0.1036295290961155</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04081803383500689</v>
+        <v>0.05250404235239185</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2942947725.571072</v>
+        <v>3305485976.157109</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1025833160101822</v>
+        <v>0.08566568200682932</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04990928507678685</v>
+        <v>0.04117672450491314</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>111</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2497039169.966708</v>
+        <v>3239961018.537842</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1727536238454644</v>
+        <v>0.1169714679064824</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02512343133056708</v>
+        <v>0.02169590461431273</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>39</v>
+      </c>
+      <c r="J74" t="n">
+        <v>115</v>
+      </c>
+      <c r="K74" t="n">
+        <v>97.99136842119091</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2491492117.396053</v>
+        <v>2187560353.95708</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1146586925263372</v>
+        <v>0.1129020388707129</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02770937131332254</v>
+        <v>0.02897318990749854</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4503786251.612978</v>
+        <v>5069248096.779334</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1034721398135299</v>
+        <v>0.1199165578014515</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03383139992794665</v>
+        <v>0.03170986153779088</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>54</v>
+      </c>
+      <c r="J76" t="n">
+        <v>115</v>
+      </c>
+      <c r="K76" t="n">
+        <v>125.1735261936645</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1568854384.505878</v>
+        <v>1743773083.097961</v>
       </c>
       <c r="F77" t="n">
-        <v>0.120494672287167</v>
+        <v>0.1289177856584599</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02924745978259339</v>
+        <v>0.03171555242419594</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3934530327.236203</v>
+        <v>3794292066.325621</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1305259129014959</v>
+        <v>0.1000325424171577</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03586153204236212</v>
+        <v>0.04347651390985335</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>57</v>
+      </c>
+      <c r="J78" t="n">
+        <v>116</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1610731392.974046</v>
+        <v>1706965719.025738</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1502692718446783</v>
+        <v>0.1158220626866889</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0266554327776791</v>
+        <v>0.02551030001823771</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4513631231.192386</v>
+        <v>5363366340.797014</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09273062488393649</v>
+        <v>0.1004185667274563</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02423886840462617</v>
+        <v>0.02532364915663396</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>56</v>
+      </c>
+      <c r="J80" t="n">
+        <v>115</v>
+      </c>
+      <c r="K80" t="n">
+        <v>115.6486072493766</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4069541834.515397</v>
+        <v>3712388737.972509</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1338105236908915</v>
+        <v>0.1204101292683597</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02397548960700141</v>
+        <v>0.02470774818290342</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>52</v>
+      </c>
+      <c r="J81" t="n">
+        <v>115</v>
+      </c>
+      <c r="K81" t="n">
+        <v>109.8546541654551</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4806820809.056151</v>
+        <v>4096638516.74965</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2174766268123336</v>
+        <v>0.1805249126718355</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02128057254512206</v>
+        <v>0.02659086728876909</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>79</v>
+      </c>
+      <c r="J82" t="n">
+        <v>116</v>
+      </c>
+      <c r="K82" t="n">
+        <v>162.7452748052589</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1792599251.066635</v>
+        <v>2413874703.432929</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1417152938520717</v>
+        <v>0.1555236899088101</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04474632287960934</v>
+        <v>0.02816596465689051</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1905016387.363562</v>
+        <v>2015279478.336738</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1210305947617412</v>
+        <v>0.07465960003380064</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03693265249327961</v>
+        <v>0.04806583522896853</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2945200486.377437</v>
+        <v>3218685100.646488</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1453293313318326</v>
+        <v>0.1821991857191094</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05496469685192275</v>
+        <v>0.03833984577423986</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2410829653.030864</v>
+        <v>2493434581.413082</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1215643697338955</v>
+        <v>0.1726071687956438</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0242991716151077</v>
+        <v>0.0263487345257986</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1451502415.004359</v>
+        <v>1087599776.369847</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1167478033555278</v>
+        <v>0.123985214911251</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03227507609720816</v>
+        <v>0.03756099225828961</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2915079475.873089</v>
+        <v>3427798360.851901</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1110746959523536</v>
+        <v>0.1344712999107412</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03228457526634093</v>
+        <v>0.0382568956901758</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2904026076.290516</v>
+        <v>3038848301.107345</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1291622004557977</v>
+        <v>0.1465619331658924</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02800578269387295</v>
+        <v>0.03704919925575154</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1732593508.317938</v>
+        <v>1862060203.714709</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08612035759163504</v>
+        <v>0.1027476219225609</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04381511026320169</v>
+        <v>0.04484455973560503</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1544501752.133837</v>
+        <v>1711332224.0623</v>
       </c>
       <c r="F91" t="n">
-        <v>0.16918117496805</v>
+        <v>0.1407124286733584</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04985923729342974</v>
+        <v>0.05818943833188815</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2206853163.864617</v>
+        <v>2430104664.768155</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06726171727859161</v>
+        <v>0.08850220057367821</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03959256042895112</v>
+        <v>0.03295058906327472</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3724,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3894867413.870988</v>
+        <v>3201611527.148442</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1360147277012206</v>
+        <v>0.1322904845292671</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0384821270991611</v>
+        <v>0.04013035730524073</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>53</v>
+      </c>
+      <c r="J93" t="n">
+        <v>114</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2060418918.611186</v>
+        <v>2455985935.534701</v>
       </c>
       <c r="F94" t="n">
-        <v>0.119898088897986</v>
+        <v>0.1468483355111122</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04169874918331372</v>
+        <v>0.03661713305533359</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3190142484.118191</v>
+        <v>2391191564.045747</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1201919813982795</v>
+        <v>0.1323328379909619</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04470132906478751</v>
+        <v>0.04192521484230194</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1719021688.718873</v>
+        <v>2254309518.478013</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1154412964129407</v>
+        <v>0.09800810085236823</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03784295028533739</v>
+        <v>0.04584329488501576</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4288955637.91569</v>
+        <v>3921746872.856433</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1506175680536594</v>
+        <v>0.1733461403077654</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02613493715027584</v>
+        <v>0.02118360532879027</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>55</v>
+      </c>
+      <c r="J97" t="n">
+        <v>115</v>
+      </c>
+      <c r="K97" t="n">
+        <v>142.6265634082211</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2586990895.550867</v>
+        <v>3633410113.923049</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1221415903064272</v>
+        <v>0.08680382077516513</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02979908663124133</v>
+        <v>0.01996270153121839</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>27</v>
+      </c>
+      <c r="J98" t="n">
+        <v>116</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3388663553.816555</v>
+        <v>2336536079.547939</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1465449873404379</v>
+        <v>0.1135799302615799</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03166167227456874</v>
+        <v>0.02357074986763026</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2902213721.608656</v>
+        <v>4472334473.070821</v>
       </c>
       <c r="F100" t="n">
-        <v>0.145041908039368</v>
+        <v>0.1459882685829192</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02295109397583281</v>
+        <v>0.02228504439811047</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>47</v>
+      </c>
+      <c r="J100" t="n">
+        <v>116</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2946310066.104222</v>
+        <v>2413289196.160796</v>
       </c>
       <c r="F101" t="n">
-        <v>0.156385160778758</v>
+        <v>0.1368030606181701</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04869654272948629</v>
+        <v>0.05791780353812103</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
